--- a/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.033726315196251</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.059471610426046</v>
+        <v>-4.05947161042605</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.791175320207637</v>
+        <v>2.190749942791739</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.48637394048401</v>
+        <v>-5.883559803402379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.528524876361953</v>
+        <v>-9.34251484892318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.732940904405012</v>
+        <v>-2.990291861317897</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.448660982440238</v>
+        <v>-8.27007757984757</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.96232917815363</v>
+        <v>-13.06830255666197</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.344718395322603</v>
+        <v>1.638494416152889</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.043491905155839</v>
+        <v>-5.244381624006491</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.795772830816441</v>
+        <v>-9.154868253551518</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.95462498031778</v>
+        <v>14.08048094992935</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.486284805476929</v>
+        <v>5.577096583282569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.678998082926716</v>
+        <v>5.708135383058656</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.716915491687036</v>
+        <v>8.886957776921879</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.779626327859202</v>
+        <v>3.179434698678337</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.526015775348986</v>
+        <v>0.927346534870312</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.619158535324727</v>
+        <v>9.551907761496615</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.727129928073572</v>
+        <v>3.149457647373354</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9631914040452758</v>
+        <v>1.018134961447123</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.04067803940748276</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1597437771632217</v>
+        <v>-0.1597437771632218</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06785075717831032</v>
+        <v>0.08165869187190565</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2168844057789551</v>
+        <v>-0.2186026144946752</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3744364223910553</v>
+        <v>-0.3660176669425379</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.09380840860231114</v>
+        <v>-0.09896169048070211</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2859969973108956</v>
+        <v>-0.2775919974463064</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4488381365740491</v>
+        <v>-0.4444847762153818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04642518759814131</v>
+        <v>0.06158123449437711</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1877500694696293</v>
+        <v>-0.1913400512837843</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3356523703801735</v>
+        <v>-0.3339377087699888</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6591069391048405</v>
+        <v>0.6764571923182501</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3096650383477806</v>
+        <v>0.2656669051029493</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2583716706167706</v>
+        <v>0.2599254926456643</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3523992499180232</v>
+        <v>0.3554978867745622</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1144314248230785</v>
+        <v>0.1370180136004223</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05958326409960932</v>
+        <v>0.03824982286151411</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3985756261318963</v>
+        <v>0.401630141247938</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1157799019684347</v>
+        <v>0.1284842621023796</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.03739085234591984</v>
+        <v>0.05007675848874931</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.727327012175952</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9234457283226499</v>
+        <v>0.9234457283226472</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.05534883315641281</v>
@@ -878,7 +878,7 @@
         <v>0.5446953471197141</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.087227793348965</v>
+        <v>3.08722779334897</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3844445964434065</v>
+        <v>-1.085501248595291</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.245815393380813</v>
+        <v>-6.60498736241393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5048567996752958</v>
+        <v>-0.24237133267607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.748411934314261</v>
+        <v>-7.966731787126847</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.134419616342723</v>
+        <v>-0.5128331048019126</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.85189525733192</v>
+        <v>-4.006736836153468</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.315072716840892</v>
+        <v>-2.800387232608155</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.992483247821677</v>
+        <v>-2.572365322088737</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.8948642625935846</v>
+        <v>-0.3354086101076741</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.30954039647259</v>
+        <v>8.056720255079709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.822156534129788</v>
+        <v>2.069668520560564</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.95825148999489</v>
+        <v>11.82681679739717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4146851195060794</v>
+        <v>0.7759901008746335</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.332937664440919</v>
+        <v>8.969457855979131</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.316463469890358</v>
+        <v>5.989073998267481</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.936090453751691</v>
+        <v>3.475706454322686</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.704495950264124</v>
+        <v>3.649046638219215</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.795166058714389</v>
+        <v>6.926300510220794</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2012905893000345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04986976839795754</v>
+        <v>0.0498697683979574</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.002781806127114169</v>
@@ -983,7 +983,7 @@
         <v>0.02737613003956601</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1551626059950693</v>
+        <v>0.1551626059950695</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01744450343356957</v>
+        <v>-0.04746012370712878</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2684004104448021</v>
+        <v>-0.2837450659547182</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.02187086027229765</v>
+        <v>-0.01332210798794435</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.383426533431622</v>
+        <v>-0.385941245181575</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05310198315801621</v>
+        <v>-0.02980219856423303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1816569842483327</v>
+        <v>-0.1914303584196079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1575055044944223</v>
+        <v>-0.1331730382549292</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1379338511359681</v>
+        <v>-0.1214154721170062</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.04323413777141006</v>
+        <v>-0.01814879585019282</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4413755506557172</v>
+        <v>0.4136389399022197</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1639937053563984</v>
+        <v>0.1125590161477145</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6182069755085654</v>
+        <v>0.6107774440012479</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.02408933842901576</v>
+        <v>0.05929526993865201</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5003961102137736</v>
+        <v>0.5443679125396016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3241563792678366</v>
+        <v>0.3571025155591013</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1624844016089197</v>
+        <v>0.1861652549139404</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2032787067487657</v>
+        <v>0.1973591355238936</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3693118573584598</v>
+        <v>0.3673510647308428</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.1650148333871532</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.139723616341474</v>
+        <v>5.139723616341469</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.501126968117183</v>
+        <v>-2.159267171149688</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.361748861664035</v>
+        <v>-5.961482067689936</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.148195661059212</v>
+        <v>1.972507500856185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.378584288013577</v>
+        <v>0.1234396279398458</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.758307087051367</v>
+        <v>-1.615873838500904</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5533077512296071</v>
+        <v>0.861567727435451</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.243559425870709</v>
+        <v>0.05565735451221286</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.674788220272069</v>
+        <v>-2.598035857951878</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.322445339433357</v>
+        <v>2.568059678240557</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.874399888395111</v>
+        <v>5.752761033547443</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.35712795831003</v>
+        <v>1.844511897619563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.56683599620584</v>
+        <v>11.11441189264408</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.703259515453007</v>
+        <v>7.948937044540186</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.499394892011584</v>
+        <v>5.33854087890992</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.682820444510193</v>
+        <v>7.841072256889592</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.754966690226683</v>
+        <v>5.649298958061316</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.623057771955306</v>
+        <v>2.305663425362997</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.765340796474248</v>
+        <v>8.283753965587835</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.01265015884121642</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3940150034520035</v>
+        <v>0.394015003452003</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1525433168939335</v>
+        <v>-0.1290819046504005</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3819888063376705</v>
+        <v>-0.3518690382730989</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.07038768214696273</v>
+        <v>0.1118262253918693</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02757682680220409</v>
+        <v>0.010726206364848</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1366450456863816</v>
+        <v>-0.1267744222768065</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04277394917820775</v>
+        <v>0.05925507658873567</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01532025727483252</v>
+        <v>0.003735551296276022</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1839774219006893</v>
+        <v>-0.1797405846780869</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1596745906510651</v>
+        <v>0.1808142132605156</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4509188826069032</v>
+        <v>0.4552212241479094</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1077585953176374</v>
+        <v>0.155456076720312</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8176633868476976</v>
+        <v>0.8419382504065369</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7776802207592656</v>
+        <v>0.8243578671015698</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5716709422599736</v>
+        <v>0.5398818070025601</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8134594746942627</v>
+        <v>0.8095514973805065</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4835242156690014</v>
+        <v>0.4791411595017713</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2302308918046763</v>
+        <v>0.1991543745275162</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6771806309554341</v>
+        <v>0.7011295253332983</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.818533160523061</v>
+        <v>-4.029899064494688</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.199254738855183</v>
+        <v>-8.563907562231632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.854025128202298</v>
+        <v>-4.746491311252472</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.313015828050398</v>
+        <v>-1.977363529163052</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.887973684969904</v>
+        <v>-2.434785665047948</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8697599286908333</v>
+        <v>0.609136853844774</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.61402763136276</v>
+        <v>-1.88081193004359</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.246577713991032</v>
+        <v>-4.031574189284211</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.9706398338162034</v>
+        <v>-0.7901017612844473</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.133405492073698</v>
+        <v>4.911687887278542</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7377468007824777</v>
+        <v>0.3754970460555139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.909865454227643</v>
+        <v>4.485193308620261</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.493363198189662</v>
+        <v>5.862720182450066</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.837191791307185</v>
+        <v>4.73658415250229</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.269219030602992</v>
+        <v>7.34023240471848</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.601539419885988</v>
+        <v>4.060950662795848</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.387255565017875</v>
+        <v>1.441722617643901</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.802803444553255</v>
+        <v>4.676808281123209</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2101618059734177</v>
+        <v>-0.2114517432540252</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.432943116272136</v>
+        <v>-0.4383024072559589</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2651058249085605</v>
+        <v>-0.2433297978138731</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1945489044691116</v>
+        <v>-0.1773124425881855</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2358631212336107</v>
+        <v>-0.2037153344054713</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05637348044482804</v>
+        <v>0.04802769789042143</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1098643963084305</v>
+        <v>-0.1259310481024007</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2952975571163058</v>
+        <v>-0.2761533047851631</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06940957547909253</v>
+        <v>-0.05516408279388425</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4004621814063256</v>
+        <v>0.3670644061675357</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.06748083471454984</v>
+        <v>0.03518397839674795</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2971963073497519</v>
+        <v>0.3463767350082468</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6901066167679519</v>
+        <v>0.7651541142318522</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.614073664039858</v>
+        <v>0.5971402280478367</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9196377617979041</v>
+        <v>0.9413621761724109</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.422065679888895</v>
+        <v>0.339711021154659</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1274688887731838</v>
+        <v>0.1395201104968042</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4343220302890574</v>
+        <v>0.4232698566908151</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.721914200439655</v>
+        <v>-3.744380828131576</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.884166058758858</v>
+        <v>-3.367001949987885</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07124346994213873</v>
+        <v>-0.4519141527236453</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.441025280820793</v>
+        <v>-0.9254585604857085</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4367830928883294</v>
+        <v>-0.09801768988038251</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.196590445001395</v>
+        <v>1.782481270267397</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.461382718809802</v>
+        <v>-1.250641773696293</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3530954649068918</v>
+        <v>-0.7295855331757403</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.79763315231581</v>
+        <v>1.737460317932972</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.293732353744859</v>
+        <v>4.705666025473758</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.263408729723813</v>
+        <v>4.98722633028446</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.788266134370573</v>
+        <v>7.445524419868753</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.856381652301998</v>
+        <v>6.037330164662547</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.601784425044018</v>
+        <v>7.033217880708626</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.041716461173017</v>
+        <v>7.983327458772435</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.011148125533026</v>
+        <v>4.443991003421598</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.308318777561705</v>
+        <v>5.193161073045722</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.582678011270652</v>
+        <v>6.715994753123788</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3219014088724795</v>
+        <v>-0.3258166548491704</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2473832039558827</v>
+        <v>-0.2783632876131484</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.01197404533697864</v>
+        <v>-0.03594956681537184</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1691639410382416</v>
+        <v>-0.1232821487268577</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06198253541391474</v>
+        <v>-0.03457116811368888</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1055562933650617</v>
+        <v>0.1949558214039282</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1462451051947401</v>
+        <v>-0.1329353645986792</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.03989976910999442</v>
+        <v>-0.07931561664434289</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1750668372776648</v>
+        <v>0.1806042281255215</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.558116917800759</v>
+        <v>0.6154217320442839</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6783561411250646</v>
+        <v>0.66208064857752</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.051322546356561</v>
+        <v>0.9900035280953324</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.113217041335847</v>
+        <v>1.185177412052243</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.446746843967697</v>
+        <v>1.341552057253299</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.538551832424742</v>
+        <v>1.584451411198716</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5972228723120151</v>
+        <v>0.609181796724769</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7676390866918638</v>
+        <v>0.7817455447997628</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9846512383627329</v>
+        <v>0.994340509253327</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.136135396970455</v>
+        <v>-1.83733611596791</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.611232274144931</v>
+        <v>-2.719042625728391</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.001083759363679</v>
+        <v>1.214980404281904</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.679192372867224</v>
+        <v>-1.55261711102209</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.5614576715986227</v>
+        <v>0.2811168160487788</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.3317617323409823</v>
+        <v>-0.2872199835292961</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.8926898349567048</v>
+        <v>-0.9345565146423472</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.01195421965305377</v>
+        <v>-0.3367303458207442</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.310459293321981</v>
+        <v>1.357321268889276</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.68200158802254</v>
+        <v>6.025227201210096</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.965312817572956</v>
+        <v>4.773794743964276</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.202802584909525</v>
+        <v>8.235841310847182</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.885699870266847</v>
+        <v>4.959345771783522</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.777932053439608</v>
+        <v>7.199891529296478</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.088812743325934</v>
+        <v>4.99064089595552</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.281282960618279</v>
+        <v>4.326724927930492</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.990939164535147</v>
+        <v>5.145648125607512</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.885839418696134</v>
+        <v>5.812779039565484</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3393397414683704</v>
+        <v>-0.28401320680306</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4162095847367627</v>
+        <v>-0.4234587572504249</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.09740113238386744</v>
+        <v>0.1149250915321421</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3298271275376504</v>
+        <v>-0.3040248234817239</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.06549971329565643</v>
+        <v>0.03769167083507628</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.05809197926051522</v>
+        <v>-0.06299283973803844</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1493721247551262</v>
+        <v>-0.1760829609948026</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.01630278220336757</v>
+        <v>-0.06115477137688362</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2226288616317689</v>
+        <v>0.2054190295254555</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.725832227407302</v>
+        <v>1.676886644502057</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.390831810927938</v>
+        <v>1.375742398637472</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.410870772642683</v>
+        <v>2.489619098063808</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.739485067884212</v>
+        <v>1.758646435017083</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.712807359640648</v>
+        <v>2.727636422908138</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.858809682309491</v>
+        <v>1.864976406346258</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.245625232824864</v>
+        <v>1.241916058449451</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.421908009668387</v>
+        <v>1.541576064296494</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.742108519689942</v>
+        <v>1.630607795901166</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>0.9619171873904809</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.818672611484355</v>
+        <v>2.818672611484356</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.928667800013848</v>
+        <v>-6.441782572851575</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.946694370010261</v>
+        <v>-5.431977933746267</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.04480646661091</v>
+        <v>-2.311718160002502</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.8738671433615256</v>
+        <v>0.8337858303761783</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.1021448325009418</v>
+        <v>-0.1342206242633179</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.227083474353003</v>
+        <v>1.39649738145976</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.179179715716147</v>
+        <v>-1.252355712783283</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.081101042345057</v>
+        <v>-1.408913580494806</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.8432595865273537</v>
+        <v>0.8206087310666937</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.003949322181922</v>
+        <v>1.076196337551278</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.9881161249749</v>
+        <v>3.21124247968365</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.79138323072997</v>
+        <v>5.920032267248292</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.972084752872588</v>
+        <v>5.895094877236505</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.994310400573335</v>
+        <v>4.643662733032499</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.166182357053278</v>
+        <v>5.219574103626547</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.165521688067693</v>
+        <v>3.042382402745631</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.183646376407248</v>
+        <v>3.170251927531925</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.722654739931722</v>
+        <v>4.66676714532611</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.3148583373478103</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.9226184786107886</v>
+        <v>0.9226184786107891</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8112243719365581</v>
+        <v>-0.8181787786414114</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6422168081013577</v>
+        <v>-0.6760766519574092</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2610790002576607</v>
+        <v>-0.3202019895295849</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1144625808851759</v>
+        <v>0.1416768961886752</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1766458175438801</v>
+        <v>-0.2304890478425415</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2115443265419706</v>
+        <v>0.3503264462638436</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3000332628659239</v>
+        <v>-0.3093844410753794</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2927702921612494</v>
+        <v>-0.3672630813744663</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1787407178739031</v>
+        <v>0.1435130247910035</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.376003647830595</v>
+        <v>0.4601082279227808</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.038160448054754</v>
+        <v>1.033280663970545</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.759059607250746</v>
+        <v>1.796750932594289</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>13.17756884759722</v>
+        <v>12.67974635893003</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>10.66738303643049</v>
+        <v>10.31253173574369</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>12.78411336764904</v>
+        <v>12.8665706594319</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.555719448367556</v>
+        <v>1.488473687737537</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.57579820668296</v>
+        <v>1.665154427679966</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.46836316164963</v>
+        <v>2.280228692683225</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-2.242189858137591</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1.261103334331695</v>
+        <v>1.261103334331692</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.044556028593433</v>
@@ -2162,7 +2162,7 @@
         <v>-0.5232645023454913</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.056623925760802</v>
+        <v>1.0566239257608</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.06622070778239657</v>
+        <v>0.2731823426102983</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.986410375242274</v>
+        <v>-4.05008378575258</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.6250860393297274</v>
+        <v>-0.6659694663788989</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.6536665826892744</v>
+        <v>-0.4795985570031193</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5186220735446002</v>
+        <v>-0.4312409768194229</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.6324445590698938</v>
+        <v>-0.6579284390409582</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.09849638654531409</v>
+        <v>0.2460968883682084</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.823698902453653</v>
+        <v>-1.656935430264377</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.178604743616358</v>
+        <v>-0.2613744224421445</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.654207083794293</v>
+        <v>3.90281624007352</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.5681369108383352</v>
+        <v>-0.4028835851513905</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.152015350757253</v>
+        <v>3.25327392828053</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.64873093477296</v>
+        <v>2.662376021302183</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.861019852893569</v>
+        <v>2.689356948465256</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.335915481538734</v>
+        <v>2.268606434826397</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.569269022531421</v>
+        <v>2.711979658451723</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.5925277666929781</v>
+        <v>0.6403023480586735</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.269128011459571</v>
+        <v>2.329383290423835</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.1427437054794612</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.0802851561751928</v>
+        <v>0.08028515617519262</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.08404970234024291</v>
@@ -2267,7 +2267,7 @@
         <v>-0.03726266855465028</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.07524421579536453</v>
+        <v>0.07524421579536433</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.004022827000894903</v>
+        <v>0.01555307509895703</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2429049616113139</v>
+        <v>-0.2454987308018482</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.0391449229789194</v>
+        <v>-0.04000088966867789</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.04942600046857013</v>
+        <v>-0.03818415460415221</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.03848823263433983</v>
+        <v>-0.03309472442729072</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.04620901504306296</v>
+        <v>-0.05339193849699218</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.007057888362958075</v>
+        <v>0.01767738133253718</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.122483578804335</v>
+        <v>-0.1143386121112516</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.01195121452231336</v>
+        <v>-0.0180002187443293</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2480266317550494</v>
+        <v>0.2662793106801971</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.03943681156796661</v>
+        <v>-0.02860773564240275</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2127058811665749</v>
+        <v>0.2184155858971447</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2285627093224976</v>
+        <v>0.224843778935804</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2444164054829601</v>
+        <v>0.2275725862022043</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1994850151828822</v>
+        <v>0.1936025783310784</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1906173093577858</v>
+        <v>0.2009259223453746</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0447385698943473</v>
+        <v>0.04782360001918044</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1701982093561753</v>
+        <v>0.1726512769589415</v>
       </c>
     </row>
     <row r="52">
